--- a/2019-3D Computer Game (II) 成績表_ver1.xlsx
+++ b/2019-3D Computer Game (II) 成績表_ver1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sof\Blender2.8\2.80\scripts\addons\3d-P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC59FC6-C428-44D1-81A1-9D20F52D8961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE467F-20E0-488F-B599-A05DC6ADF54E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -780,6 +780,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -891,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +980,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1845,9 +1855,9 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2127,7 @@
       <c r="D6" s="14">
         <v>5</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="36">
         <v>0</v>
       </c>
       <c r="F6" s="14">
@@ -2677,9 +2687,9 @@
   </sheetPr>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3101,7 +3111,7 @@
       <c r="K6" s="35">
         <v>0</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="36">
         <v>0</v>
       </c>
       <c r="M6" s="36">
@@ -3137,7 +3147,7 @@
       <c r="W6" s="14">
         <v>0</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="37">
         <v>0</v>
       </c>
       <c r="Y6" s="16">
